--- a/Project2/Project2/Book4.xlsx
+++ b/Project2/Project2/Book4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\新しいフォルダー\Project2\map情報\map情報\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\new game\Project2\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -655,7 +655,258 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -933,9 +1184,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BT16" sqref="BT16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="80" width="3" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A1">
@@ -1292,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
@@ -1534,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
@@ -1749,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -1776,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -2018,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -2260,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -2484,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -2502,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
@@ -2744,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
@@ -2986,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -3228,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -3345,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="BY10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BZ10">
         <v>0</v>
@@ -3383,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3470,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11">
         <v>0</v>
@@ -3536,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="BH11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BI11">
         <v>0</v>
@@ -3685,13 +3941,13 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -3712,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
         <v>0</v>
@@ -3900,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -3927,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13">
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -3954,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
         <v>0</v>
@@ -4169,13 +4425,13 @@
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -4196,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14">
         <v>0</v>
@@ -4438,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
         <v>0</v>
@@ -4540,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="BT15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BU15">
         <v>0</v>
@@ -4680,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -4850,19 +5106,19 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -4922,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -5164,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="AL18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18">
         <v>0</v>
@@ -5406,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="AL19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19">
         <v>0</v>
@@ -5433,7 +5689,7 @@
         <v>0</v>
       </c>
       <c r="AU19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV19">
         <v>0</v>
@@ -5648,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
         <v>0</v>
@@ -5890,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21">
         <v>0</v>
@@ -6132,7 +6388,7 @@
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
         <v>0</v>
@@ -6329,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -6374,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23">
         <v>0</v>
@@ -6571,7 +6827,7 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -6586,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -6616,7 +6872,7 @@
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM24">
         <v>0</v>
@@ -6813,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -6858,7 +7114,7 @@
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM25">
         <v>0</v>
@@ -7055,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -7100,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM26">
         <v>0</v>
@@ -7288,16 +7544,16 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -7342,7 +7598,7 @@
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM27">
         <v>0</v>
@@ -7515,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -7584,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM28">
         <v>0</v>
@@ -7826,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="AL29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM29">
         <v>0</v>
@@ -7898,13 +8154,13 @@
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BK29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BL29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BM29">
         <v>0</v>
@@ -7960,238 +8216,238 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BK30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BL30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BM30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB30">
         <v>1</v>
@@ -8199,7 +8455,7 @@
     </row>
     <row r="31" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -8310,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM31">
         <v>0</v>
@@ -8382,13 +8638,13 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BK31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BL31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BM31">
         <v>0</v>
@@ -8415,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="BU31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV31">
         <v>0</v>
@@ -8436,12 +8692,12 @@
         <v>0</v>
       </c>
       <c r="CB31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -8552,7 +8808,7 @@
         <v>0</v>
       </c>
       <c r="AL32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM32">
         <v>0</v>
@@ -8678,12 +8934,12 @@
         <v>0</v>
       </c>
       <c r="CB32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -8752,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="X33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -8794,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="AL33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM33">
         <v>0</v>
@@ -8920,12 +9176,12 @@
         <v>0</v>
       </c>
       <c r="CB33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -9036,7 +9292,7 @@
         <v>0</v>
       </c>
       <c r="AL34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM34">
         <v>0</v>
@@ -9162,12 +9418,12 @@
         <v>0</v>
       </c>
       <c r="CB34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -9278,7 +9534,7 @@
         <v>0</v>
       </c>
       <c r="AL35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM35">
         <v>0</v>
@@ -9404,12 +9660,12 @@
         <v>0</v>
       </c>
       <c r="CB35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -9520,7 +9776,7 @@
         <v>0</v>
       </c>
       <c r="AL36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36">
         <v>0</v>
@@ -9550,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="AV36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW36">
         <v>0</v>
@@ -9646,12 +9902,12 @@
         <v>0</v>
       </c>
       <c r="CB36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -9762,7 +10018,7 @@
         <v>0</v>
       </c>
       <c r="AL37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37">
         <v>0</v>
@@ -9888,12 +10144,12 @@
         <v>0</v>
       </c>
       <c r="CB37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -10004,7 +10260,7 @@
         <v>0</v>
       </c>
       <c r="AL38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38">
         <v>0</v>
@@ -10130,12 +10386,12 @@
         <v>0</v>
       </c>
       <c r="CB38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -10246,7 +10502,7 @@
         <v>0</v>
       </c>
       <c r="AL39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39">
         <v>0</v>
@@ -10372,12 +10628,12 @@
         <v>0</v>
       </c>
       <c r="CB39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -10488,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40">
         <v>0</v>
@@ -10614,12 +10870,12 @@
         <v>0</v>
       </c>
       <c r="CB40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -10730,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="AL41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41">
         <v>0</v>
@@ -10856,12 +11112,12 @@
         <v>0</v>
       </c>
       <c r="CB41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -10924,19 +11180,19 @@
         <v>0</v>
       </c>
       <c r="V42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA42">
         <v>0</v>
@@ -10972,7 +11228,7 @@
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42">
         <v>0</v>
@@ -11098,12 +11354,12 @@
         <v>0</v>
       </c>
       <c r="CB42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -11151,7 +11407,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -11178,7 +11434,7 @@
         <v>0</v>
       </c>
       <c r="Z43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA43">
         <v>0</v>
@@ -11214,7 +11470,7 @@
         <v>0</v>
       </c>
       <c r="AL43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43">
         <v>0</v>
@@ -11340,12 +11596,12 @@
         <v>0</v>
       </c>
       <c r="CB43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -11420,7 +11676,7 @@
         <v>0</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA44">
         <v>0</v>
@@ -11456,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="AL44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44">
         <v>0</v>
@@ -11582,12 +11838,12 @@
         <v>0</v>
       </c>
       <c r="CB44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -11662,7 +11918,7 @@
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA45">
         <v>0</v>
@@ -11698,7 +11954,7 @@
         <v>0</v>
       </c>
       <c r="AL45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45">
         <v>0</v>
@@ -11824,12 +12080,12 @@
         <v>0</v>
       </c>
       <c r="CB45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -11940,7 +12196,7 @@
         <v>0</v>
       </c>
       <c r="AL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46">
         <v>0</v>
@@ -12066,12 +12322,12 @@
         <v>0</v>
       </c>
       <c r="CB46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -12182,7 +12438,7 @@
         <v>0</v>
       </c>
       <c r="AL47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47">
         <v>0</v>
@@ -12218,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="AX47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY47">
         <v>0</v>
@@ -12308,12 +12564,12 @@
         <v>0</v>
       </c>
       <c r="CB47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -12424,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="AL48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48">
         <v>0</v>
@@ -12550,12 +12806,12 @@
         <v>0</v>
       </c>
       <c r="CB48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -12594,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -12630,7 +12886,7 @@
         <v>0</v>
       </c>
       <c r="Z49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA49">
         <v>0</v>
@@ -12666,7 +12922,7 @@
         <v>0</v>
       </c>
       <c r="AL49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49">
         <v>0</v>
@@ -12768,7 +13024,7 @@
         <v>0</v>
       </c>
       <c r="BT49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BU49">
         <v>0</v>
@@ -12792,12 +13048,12 @@
         <v>0</v>
       </c>
       <c r="CB49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -12836,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50">
         <v>0</v>
@@ -12908,7 +13164,7 @@
         <v>0</v>
       </c>
       <c r="AL50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50">
         <v>0</v>
@@ -13034,12 +13290,12 @@
         <v>0</v>
       </c>
       <c r="CB50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -13078,7 +13334,7 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -13102,7 +13358,7 @@
         <v>0</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W51">
         <v>0</v>
@@ -13150,7 +13406,7 @@
         <v>0</v>
       </c>
       <c r="AL51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51">
         <v>0</v>
@@ -13276,12 +13532,12 @@
         <v>0</v>
       </c>
       <c r="CB51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -13320,7 +13576,7 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -13392,7 +13648,7 @@
         <v>0</v>
       </c>
       <c r="AL52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52">
         <v>0</v>
@@ -13518,12 +13774,12 @@
         <v>0</v>
       </c>
       <c r="CB52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -13562,7 +13818,7 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -13634,7 +13890,7 @@
         <v>0</v>
       </c>
       <c r="AL53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53">
         <v>0</v>
@@ -13760,12 +14016,12 @@
         <v>0</v>
       </c>
       <c r="CB53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -13855,7 +14111,7 @@
         <v>0</v>
       </c>
       <c r="AE54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -13876,7 +14132,7 @@
         <v>0</v>
       </c>
       <c r="AL54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54">
         <v>0</v>
@@ -14002,12 +14258,12 @@
         <v>0</v>
       </c>
       <c r="CB54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -14118,7 +14374,7 @@
         <v>0</v>
       </c>
       <c r="AL55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55">
         <v>0</v>
@@ -14184,7 +14440,7 @@
         <v>0</v>
       </c>
       <c r="BH55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BI55">
         <v>0</v>
@@ -14244,12 +14500,12 @@
         <v>0</v>
       </c>
       <c r="CB55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -14360,7 +14616,7 @@
         <v>0</v>
       </c>
       <c r="AL56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56">
         <v>0</v>
@@ -14486,12 +14742,12 @@
         <v>0</v>
       </c>
       <c r="CB56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -14602,7 +14858,7 @@
         <v>0</v>
       </c>
       <c r="AL57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57">
         <v>0</v>
@@ -14728,12 +14984,12 @@
         <v>0</v>
       </c>
       <c r="CB57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -14844,7 +15100,7 @@
         <v>0</v>
       </c>
       <c r="AL58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58">
         <v>0</v>
@@ -14970,12 +15226,12 @@
         <v>0</v>
       </c>
       <c r="CB58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -15086,7 +15342,7 @@
         <v>0</v>
       </c>
       <c r="AL59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59">
         <v>0</v>
@@ -15212,253 +15468,277 @@
         <v>0</v>
       </c>
       <c r="CB59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
+  <conditionalFormatting sqref="A1:CB60">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project2/Project2/Book4.xlsx
+++ b/Project2/Project2/Book4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\new game\Project2\Project2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\team_game\Project2\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -655,58 +655,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -752,147 +701,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1184,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BT16" sqref="BT16"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1387,52 +1195,52 @@
         <v>1</v>
       </c>
       <c r="BM1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:80" x14ac:dyDescent="0.4">
@@ -1626,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="BL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM2">
         <v>0</v>
@@ -1674,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="CB2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:80" x14ac:dyDescent="0.4">
@@ -1706,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1850,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="BF3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -1868,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="BL3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM3">
         <v>0</v>
@@ -1916,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="CB3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.4">
@@ -2008,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -2062,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW4">
         <v>0</v>
@@ -2092,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="BF4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG4">
         <v>0</v>
@@ -2110,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="BL4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM4">
         <v>0</v>
@@ -2158,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="CB4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.4">
@@ -2352,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="BL5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM5">
         <v>0</v>
@@ -2400,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="CB5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.4">
@@ -2420,10 +2228,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2438,163 +2246,163 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AZ6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM6">
         <v>0</v>
@@ -2642,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="CB6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:80" x14ac:dyDescent="0.4">
@@ -2662,10 +2470,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2680,208 +2488,208 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AY7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AZ7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB7">
         <v>1</v>
@@ -2904,10 +2712,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3027,10 +2835,10 @@
         <v>0</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW8">
         <v>0</v>
@@ -3045,10 +2853,10 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC8">
         <v>0</v>
@@ -3146,10 +2954,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3227,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -3269,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW9">
         <v>0</v>
@@ -3287,10 +3095,10 @@
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BB9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC9">
         <v>0</v>
@@ -3311,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="BI9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ9">
         <v>0</v>
@@ -3388,10 +3196,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3415,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -3457,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -3511,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW10">
         <v>0</v>
@@ -3529,10 +3337,10 @@
         <v>0</v>
       </c>
       <c r="BA10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BB10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC10">
         <v>0</v>
@@ -3544,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="BF10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG10">
         <v>0</v>
@@ -3630,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -3753,10 +3561,10 @@
         <v>0</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW11">
         <v>0</v>
@@ -3771,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BB11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC11">
         <v>0</v>
@@ -3795,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="BI11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ11">
         <v>0</v>
@@ -3872,43 +3680,43 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -3923,37 +3731,37 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH12">
         <v>0</v>
@@ -3971,10 +3779,10 @@
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -3995,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="AU12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW12">
         <v>0</v>
@@ -4013,10 +3821,10 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BB12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC12">
         <v>0</v>
@@ -4114,43 +3922,43 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -4165,37 +3973,37 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH13">
         <v>0</v>
@@ -4213,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -4237,10 +4045,10 @@
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW13">
         <v>0</v>
@@ -4255,40 +4063,40 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM13">
         <v>0</v>
@@ -4356,10 +4164,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -4407,10 +4215,10 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -4455,10 +4263,10 @@
         <v>0</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -4479,10 +4287,10 @@
         <v>0</v>
       </c>
       <c r="AU14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW14">
         <v>0</v>
@@ -4497,40 +4305,40 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM14">
         <v>0</v>
@@ -4598,10 +4406,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -4649,10 +4457,10 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -4673,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -4697,10 +4505,10 @@
         <v>0</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -4769,10 +4577,10 @@
         <v>0</v>
       </c>
       <c r="BK15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM15">
         <v>0</v>
@@ -4840,10 +4648,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -4861,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -4891,10 +4699,10 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -4903,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -4939,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -4963,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="AU16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV16">
         <v>0</v>
@@ -5002,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="BH16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI16">
         <v>0</v>
@@ -5011,10 +4819,10 @@
         <v>0</v>
       </c>
       <c r="BK16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM16">
         <v>0</v>
@@ -5082,10 +4890,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -5133,10 +4941,10 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -5181,10 +4989,10 @@
         <v>0</v>
       </c>
       <c r="AM17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -5217,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="AY17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ17">
         <v>0</v>
@@ -5253,10 +5061,10 @@
         <v>0</v>
       </c>
       <c r="BK17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM17">
         <v>0</v>
@@ -5324,10 +5132,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -5342,91 +5150,91 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -5495,10 +5303,10 @@
         <v>0</v>
       </c>
       <c r="BK18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM18">
         <v>0</v>
@@ -5566,10 +5374,10 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -5584,91 +5392,91 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -5683,46 +5491,46 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG19">
         <v>0</v>
@@ -5737,10 +5545,10 @@
         <v>0</v>
       </c>
       <c r="BK19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM19">
         <v>0</v>
@@ -5802,16 +5610,16 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -5874,10 +5682,10 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -5925,46 +5733,46 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG20">
         <v>0</v>
@@ -5979,10 +5787,10 @@
         <v>0</v>
       </c>
       <c r="BK20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM20">
         <v>0</v>
@@ -6050,10 +5858,10 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -6062,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -6116,10 +5924,10 @@
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -6134,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI21">
         <v>0</v>
@@ -6167,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -6203,10 +6011,10 @@
         <v>0</v>
       </c>
       <c r="BE21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG21">
         <v>0</v>
@@ -6221,10 +6029,10 @@
         <v>0</v>
       </c>
       <c r="BK21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM21">
         <v>0</v>
@@ -6292,10 +6100,10 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -6337,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -6358,10 +6166,10 @@
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -6385,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL22">
         <v>0</v>
@@ -6409,10 +6217,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -6445,10 +6253,10 @@
         <v>0</v>
       </c>
       <c r="BE22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG22">
         <v>0</v>
@@ -6463,10 +6271,10 @@
         <v>0</v>
       </c>
       <c r="BK22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM22">
         <v>0</v>
@@ -6534,10 +6342,10 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -6600,10 +6408,10 @@
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -6651,10 +6459,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -6666,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="AX23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY23">
         <v>0</v>
@@ -6687,10 +6495,10 @@
         <v>0</v>
       </c>
       <c r="BE23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG23">
         <v>0</v>
@@ -6705,55 +6513,55 @@
         <v>0</v>
       </c>
       <c r="BK23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB23">
         <v>1</v>
@@ -6776,58 +6584,58 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -6842,61 +6650,61 @@
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -6929,10 +6737,10 @@
         <v>0</v>
       </c>
       <c r="BE24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG24">
         <v>0</v>
@@ -6947,10 +6755,10 @@
         <v>0</v>
       </c>
       <c r="BK24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM24">
         <v>0</v>
@@ -6998,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="CB24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:80" x14ac:dyDescent="0.4">
@@ -7018,58 +6826,58 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -7084,61 +6892,61 @@
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -7153,10 +6961,10 @@
         <v>0</v>
       </c>
       <c r="AY25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA25">
         <v>0</v>
@@ -7171,10 +6979,10 @@
         <v>0</v>
       </c>
       <c r="BE25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG25">
         <v>0</v>
@@ -7189,10 +6997,10 @@
         <v>0</v>
       </c>
       <c r="BK25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM25">
         <v>0</v>
@@ -7240,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="CB25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:80" x14ac:dyDescent="0.4">
@@ -7395,10 +7203,10 @@
         <v>0</v>
       </c>
       <c r="AY26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA26">
         <v>0</v>
@@ -7431,10 +7239,10 @@
         <v>0</v>
       </c>
       <c r="BK26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM26">
         <v>0</v>
@@ -7482,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="CB26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:80" x14ac:dyDescent="0.4">
@@ -7637,10 +7445,10 @@
         <v>0</v>
       </c>
       <c r="AY27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA27">
         <v>0</v>
@@ -7673,10 +7481,10 @@
         <v>0</v>
       </c>
       <c r="BK27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM27">
         <v>0</v>
@@ -7724,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="CB27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:80" x14ac:dyDescent="0.4">
@@ -7735,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -7786,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -7813,7 +7621,7 @@
         <v>0</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -7840,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM28">
         <v>0</v>
@@ -7879,10 +7687,10 @@
         <v>0</v>
       </c>
       <c r="AY28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA28">
         <v>0</v>
@@ -7900,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="BF28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BG28">
         <v>0</v>
@@ -7915,10 +7723,10 @@
         <v>0</v>
       </c>
       <c r="BK28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM28">
         <v>0</v>
@@ -7966,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="CB28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:80" x14ac:dyDescent="0.4">
@@ -8121,10 +7929,10 @@
         <v>0</v>
       </c>
       <c r="AY29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA29">
         <v>0</v>
@@ -8157,10 +7965,10 @@
         <v>0</v>
       </c>
       <c r="BK29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM29">
         <v>0</v>
@@ -8208,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="CB29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:80" x14ac:dyDescent="0.4">
@@ -8405,52 +8213,52 @@
         <v>1</v>
       </c>
       <c r="BM30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:80" x14ac:dyDescent="0.4">
@@ -15716,25 +15524,25 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="A1:CB60">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Project2/Project2/Book4.xlsx
+++ b/Project2/Project2/Book4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\team_game\Project2\Project2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\test\Project2\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -993,7 +993,7 @@
   <dimension ref="A1:CB60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AC29" sqref="AC29"/>
+      <selection activeCell="AZ4" sqref="AZ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2357,16 +2357,16 @@
         <v>1</v>
       </c>
       <c r="AW6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BA6">
         <v>1</v>
@@ -2599,16 +2599,16 @@
         <v>1</v>
       </c>
       <c r="AW7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AY7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AZ7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BA7">
         <v>1</v>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="BF10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BG10">
         <v>0</v>
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -7543,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D28">
         <v>0</v>
